--- a/인게임 종합/양과늑대 사운드 리스트.xlsx
+++ b/인게임 종합/양과늑대 사운드 리스트.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9052a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Sheperd_Holidays\인게임 종합\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19AE9DA-A94B-4186-8F75-5BEC11E82751}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="3372" yWindow="288" windowWidth="19296" windowHeight="10944" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="3" r:id="rId1"/>
-    <sheet name="배경" sheetId="4" r:id="rId2"/>
-    <sheet name="건물" sheetId="1" r:id="rId3"/>
+    <sheet name="건물" sheetId="1" r:id="rId2"/>
+    <sheet name="배경" sheetId="4" r:id="rId3"/>
     <sheet name="유닛" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -368,7 +369,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -981,23 +982,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="10" t="s">
         <v>82</v>
       </c>
@@ -1008,7 +1009,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1017,18 +1018,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="21" x14ac:dyDescent="0.4">
       <c r="B8" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1036,7 +1037,7 @@
       <c r="D9" s="14"/>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1045,7 +1046,7 @@
       <c r="E10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1053,7 +1054,7 @@
       <c r="D11" s="14"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1061,7 +1062,7 @@
       <c r="D12" s="14"/>
       <c r="E12" s="13"/>
     </row>
-    <row r="13" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
         <v>28</v>
       </c>
@@ -1069,7 +1070,7 @@
       <c r="D13" s="17"/>
       <c r="E13" s="13"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
@@ -1077,7 +1078,7 @@
       <c r="D14" s="17"/>
       <c r="E14" s="13"/>
     </row>
-    <row r="15" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1085,7 +1086,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="13"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -1098,138 +1099,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.75" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.25" customWidth="1"/>
-    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.19921875" customWidth="1"/>
+    <col min="2" max="2" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:4" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="10" t="s">
         <v>52</v>
       </c>
@@ -1240,7 +1126,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1249,7 +1135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1258,7 +1144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1267,7 +1153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1276,7 +1162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1285,8 +1171,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="2:4" ht="21" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
@@ -1297,7 +1183,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1306,7 +1192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
@@ -1315,8 +1201,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="2:4" ht="21" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>53</v>
       </c>
@@ -1327,7 +1213,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="4" t="s">
         <v>34</v>
       </c>
@@ -1343,24 +1229,139 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.69921875" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.625" customWidth="1"/>
-    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.59765625" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:16" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:16" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="10" t="s">
         <v>52</v>
       </c>
@@ -1371,7 +1372,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
@@ -1380,8 +1381,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:16" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="2:16" ht="21" x14ac:dyDescent="0.4">
       <c r="B6" s="10" t="s">
         <v>51</v>
       </c>
@@ -1392,7 +1393,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
@@ -1401,7 +1402,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>37</v>
       </c>
@@ -1410,7 +1411,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>39</v>
       </c>
@@ -1421,7 +1422,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>40</v>
       </c>
@@ -1432,7 +1433,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
         <v>41</v>
       </c>
@@ -1446,8 +1447,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:16" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="2:16" ht="21" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
         <v>2</v>
       </c>
@@ -1458,7 +1459,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
@@ -1467,7 +1468,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -1476,7 +1477,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
         <v>44</v>
       </c>
@@ -1487,7 +1488,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
@@ -1498,7 +1499,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="4" t="s">
         <v>42</v>
       </c>
@@ -1509,7 +1510,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
       <c r="P20" t="s">
         <v>1</v>
       </c>
